--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Switzerland_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Switzerland_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G460"/>
+  <dimension ref="A1:G463"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11951,6 +11951,81 @@
         <v>0</v>
       </c>
     </row>
+    <row r="461">
+      <c r="A461" s="2" t="n">
+        <v>44986.45833333334</v>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>ECONOMICS:CHM2</t>
+        </is>
+      </c>
+      <c r="C461" t="n">
+        <v>1014266000000</v>
+      </c>
+      <c r="D461" t="n">
+        <v>1014266000000</v>
+      </c>
+      <c r="E461" t="n">
+        <v>1014266000000</v>
+      </c>
+      <c r="F461" t="n">
+        <v>1014266000000</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="2" t="n">
+        <v>45017.45833333334</v>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>ECONOMICS:CHM2</t>
+        </is>
+      </c>
+      <c r="C462" t="n">
+        <v>1003055000000</v>
+      </c>
+      <c r="D462" t="n">
+        <v>1003055000000</v>
+      </c>
+      <c r="E462" t="n">
+        <v>1003055000000</v>
+      </c>
+      <c r="F462" t="n">
+        <v>1003055000000</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="2" t="n">
+        <v>45047.41666666666</v>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>ECONOMICS:CHM2</t>
+        </is>
+      </c>
+      <c r="C463" t="n">
+        <v>990955000000</v>
+      </c>
+      <c r="D463" t="n">
+        <v>990955000000</v>
+      </c>
+      <c r="E463" t="n">
+        <v>990955000000</v>
+      </c>
+      <c r="F463" t="n">
+        <v>990955000000</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Switzerland_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Switzerland_M2.xlsx
@@ -11986,16 +11986,16 @@
         </is>
       </c>
       <c r="C462" t="n">
-        <v>1003055000000</v>
+        <v>1005115000000</v>
       </c>
       <c r="D462" t="n">
-        <v>1003055000000</v>
+        <v>1005115000000</v>
       </c>
       <c r="E462" t="n">
-        <v>1003055000000</v>
+        <v>1005115000000</v>
       </c>
       <c r="F462" t="n">
-        <v>1003055000000</v>
+        <v>1005115000000</v>
       </c>
       <c r="G462" t="n">
         <v>0</v>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Switzerland_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Switzerland_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G463"/>
+  <dimension ref="A1:G464"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -578,7 +578,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>31138.41666666667</v>
+        <v>31138.45833333333</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>31503.41666666667</v>
+        <v>31503.45833333333</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>31868.41666666667</v>
+        <v>31868.45833333333</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>32234.41666666667</v>
+        <v>32234.45833333333</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>32599.41666666667</v>
+        <v>32599.45833333333</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>32782.41666666666</v>
+        <v>32782.45833333334</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>33329.41666666666</v>
+        <v>33329.45833333334</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>33664.41666666666</v>
+        <v>33664.45833333334</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>33695.41666666666</v>
+        <v>33695.45833333334</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>34060.41666666666</v>
+        <v>34060.45833333334</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>34425.41666666666</v>
+        <v>34425.45833333334</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>34790.41666666666</v>
+        <v>34790.45833333334</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -3728,7 +3728,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>34973.41666666666</v>
+        <v>34973.45833333334</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>35156.41666666666</v>
+        <v>35156.45833333334</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>35521.41666666666</v>
+        <v>35521.45833333334</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>35886.41666666666</v>
+        <v>35886.45833333334</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>36251.41666666666</v>
+        <v>36251.45833333334</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -5078,7 +5078,7 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>36617.41666666666</v>
+        <v>36617.45833333334</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>36770.45833333334</v>
+        <v>36770.41666666666</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>37347.41666666666</v>
+        <v>37347.45833333334</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>37712.41666666666</v>
+        <v>37712.45833333334</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>38078.41666666666</v>
+        <v>38078.45833333334</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
@@ -6578,7 +6578,7 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>38443.41666666666</v>
+        <v>38443.45833333334</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>38991.41666666666</v>
+        <v>38991.45833333334</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
@@ -11961,16 +11961,16 @@
         </is>
       </c>
       <c r="C461" t="n">
-        <v>1014266000000</v>
+        <v>1016337000000</v>
       </c>
       <c r="D461" t="n">
-        <v>1014266000000</v>
+        <v>1016337000000</v>
       </c>
       <c r="E461" t="n">
-        <v>1014266000000</v>
+        <v>1016337000000</v>
       </c>
       <c r="F461" t="n">
-        <v>1014266000000</v>
+        <v>1016337000000</v>
       </c>
       <c r="G461" t="n">
         <v>0</v>
@@ -11986,16 +11986,16 @@
         </is>
       </c>
       <c r="C462" t="n">
-        <v>1005115000000</v>
+        <v>1006548000000</v>
       </c>
       <c r="D462" t="n">
-        <v>1005115000000</v>
+        <v>1006548000000</v>
       </c>
       <c r="E462" t="n">
-        <v>1005115000000</v>
+        <v>1006548000000</v>
       </c>
       <c r="F462" t="n">
-        <v>1005115000000</v>
+        <v>1006548000000</v>
       </c>
       <c r="G462" t="n">
         <v>0</v>
@@ -12011,18 +12011,43 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>990955000000</v>
+        <v>990784000000</v>
       </c>
       <c r="D463" t="n">
-        <v>990955000000</v>
+        <v>990784000000</v>
       </c>
       <c r="E463" t="n">
-        <v>990955000000</v>
+        <v>990784000000</v>
       </c>
       <c r="F463" t="n">
-        <v>990955000000</v>
+        <v>990784000000</v>
       </c>
       <c r="G463" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="2" t="n">
+        <v>45078.41666666666</v>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>ECONOMICS:CHM2</t>
+        </is>
+      </c>
+      <c r="C464" t="n">
+        <v>976617000000</v>
+      </c>
+      <c r="D464" t="n">
+        <v>976617000000</v>
+      </c>
+      <c r="E464" t="n">
+        <v>976617000000</v>
+      </c>
+      <c r="F464" t="n">
+        <v>976617000000</v>
+      </c>
+      <c r="G464" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Switzerland_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Switzerland_M2.xlsx
@@ -578,7 +578,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>31138.45833333333</v>
+        <v>31138.41666666667</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>31503.45833333333</v>
+        <v>31503.41666666667</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>31868.45833333333</v>
+        <v>31868.41666666667</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>32234.45833333333</v>
+        <v>32234.41666666667</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>32599.45833333333</v>
+        <v>32599.41666666667</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>32782.45833333334</v>
+        <v>32782.41666666666</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>33329.45833333334</v>
+        <v>33329.41666666666</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>33664.45833333334</v>
+        <v>33664.41666666666</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>33695.45833333334</v>
+        <v>33695.41666666666</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>34060.45833333334</v>
+        <v>34060.41666666666</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>34425.45833333334</v>
+        <v>34425.41666666666</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>34790.45833333334</v>
+        <v>34790.41666666666</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -3728,7 +3728,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>34973.45833333334</v>
+        <v>34973.41666666666</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>35156.45833333334</v>
+        <v>35156.41666666666</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>35521.45833333334</v>
+        <v>35521.41666666666</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>35886.45833333334</v>
+        <v>35886.41666666666</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>36251.45833333334</v>
+        <v>36251.41666666666</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -5078,7 +5078,7 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>36617.45833333334</v>
+        <v>36617.41666666666</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>36770.41666666666</v>
+        <v>36770.45833333334</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>37347.45833333334</v>
+        <v>37347.41666666666</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>37712.45833333334</v>
+        <v>37712.41666666666</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>38078.45833333334</v>
+        <v>38078.41666666666</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
@@ -6578,7 +6578,7 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>38443.45833333334</v>
+        <v>38443.41666666666</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>38991.45833333334</v>
+        <v>38991.41666666666</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Switzerland_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Switzerland_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G464"/>
+  <dimension ref="A1:G465"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12036,18 +12036,43 @@
         </is>
       </c>
       <c r="C464" t="n">
-        <v>976617000000</v>
+        <v>975019000000</v>
       </c>
       <c r="D464" t="n">
-        <v>976617000000</v>
+        <v>975019000000</v>
       </c>
       <c r="E464" t="n">
-        <v>976617000000</v>
+        <v>975019000000</v>
       </c>
       <c r="F464" t="n">
-        <v>976617000000</v>
+        <v>975019000000</v>
       </c>
       <c r="G464" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="2" t="n">
+        <v>45108.41666666666</v>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>ECONOMICS:CHM2</t>
+        </is>
+      </c>
+      <c r="C465" t="n">
+        <v>961703000000</v>
+      </c>
+      <c r="D465" t="n">
+        <v>961703000000</v>
+      </c>
+      <c r="E465" t="n">
+        <v>961703000000</v>
+      </c>
+      <c r="F465" t="n">
+        <v>961703000000</v>
+      </c>
+      <c r="G465" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Switzerland_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Switzerland_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G465"/>
+  <dimension ref="A1:G467"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11986,16 +11986,16 @@
         </is>
       </c>
       <c r="C462" t="n">
-        <v>1006548000000</v>
+        <v>1006544000000</v>
       </c>
       <c r="D462" t="n">
-        <v>1006548000000</v>
+        <v>1006544000000</v>
       </c>
       <c r="E462" t="n">
-        <v>1006548000000</v>
+        <v>1006544000000</v>
       </c>
       <c r="F462" t="n">
-        <v>1006548000000</v>
+        <v>1006544000000</v>
       </c>
       <c r="G462" t="n">
         <v>0</v>
@@ -12061,18 +12061,68 @@
         </is>
       </c>
       <c r="C465" t="n">
-        <v>961703000000</v>
+        <v>961434000000</v>
       </c>
       <c r="D465" t="n">
-        <v>961703000000</v>
+        <v>961434000000</v>
       </c>
       <c r="E465" t="n">
-        <v>961703000000</v>
+        <v>961434000000</v>
       </c>
       <c r="F465" t="n">
-        <v>961703000000</v>
+        <v>961434000000</v>
       </c>
       <c r="G465" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="2" t="n">
+        <v>45139.41666666666</v>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>ECONOMICS:CHM2</t>
+        </is>
+      </c>
+      <c r="C466" t="n">
+        <v>949976000000</v>
+      </c>
+      <c r="D466" t="n">
+        <v>949976000000</v>
+      </c>
+      <c r="E466" t="n">
+        <v>949976000000</v>
+      </c>
+      <c r="F466" t="n">
+        <v>949976000000</v>
+      </c>
+      <c r="G466" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="2" t="n">
+        <v>45170.41666666666</v>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>ECONOMICS:CHM2</t>
+        </is>
+      </c>
+      <c r="C467" t="n">
+        <v>943119000000</v>
+      </c>
+      <c r="D467" t="n">
+        <v>943119000000</v>
+      </c>
+      <c r="E467" t="n">
+        <v>943119000000</v>
+      </c>
+      <c r="F467" t="n">
+        <v>943119000000</v>
+      </c>
+      <c r="G467" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Switzerland_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Switzerland_M2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="8">
   <si>
     <t>symbol</t>
   </si>
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G467"/>
+  <dimension ref="A1:G468"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11133,18 +11133,41 @@
         <v>7</v>
       </c>
       <c r="C467">
-        <v>943119000000</v>
+        <v>942361000000</v>
       </c>
       <c r="D467">
-        <v>943119000000</v>
+        <v>942361000000</v>
       </c>
       <c r="E467">
-        <v>943119000000</v>
+        <v>942361000000</v>
       </c>
       <c r="F467">
-        <v>943119000000</v>
+        <v>942361000000</v>
       </c>
       <c r="G467">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:7">
+      <c r="A468" s="2">
+        <v>45200.45833333334</v>
+      </c>
+      <c r="B468" t="s">
+        <v>7</v>
+      </c>
+      <c r="C468">
+        <v>936896000000</v>
+      </c>
+      <c r="D468">
+        <v>936896000000</v>
+      </c>
+      <c r="E468">
+        <v>936896000000</v>
+      </c>
+      <c r="F468">
+        <v>936896000000</v>
+      </c>
+      <c r="G468">
         <v>0</v>
       </c>
     </row>
